--- a/natmiOut/OldD2/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.4219360171216</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H2">
-        <v>45.4219360171216</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I2">
-        <v>0.1126280358418541</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J2">
-        <v>0.1126280358418541</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.8833588351395359</v>
+        <v>0.3675875</v>
       </c>
       <c r="N2">
-        <v>0.8833588351395359</v>
+        <v>0.735175</v>
       </c>
       <c r="O2">
-        <v>0.3044262421287312</v>
+        <v>0.0828918934338413</v>
       </c>
       <c r="P2">
-        <v>0.3044262421287312</v>
+        <v>0.0683447967221643</v>
       </c>
       <c r="Q2">
-        <v>40.12386848986707</v>
+        <v>16.70707444923125</v>
       </c>
       <c r="R2">
-        <v>40.12386848986707</v>
+        <v>66.828297796925</v>
       </c>
       <c r="S2">
-        <v>0.03428692970967569</v>
+        <v>0.009055463228738245</v>
       </c>
       <c r="T2">
-        <v>0.03428692970967569</v>
+        <v>0.005567716682103202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.4219360171216</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H3">
-        <v>45.4219360171216</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I3">
-        <v>0.1126280358418541</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J3">
-        <v>0.1126280358418541</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.01835827361745</v>
+        <v>0.9439833333333333</v>
       </c>
       <c r="N3">
-        <v>2.01835827361745</v>
+        <v>2.83195</v>
       </c>
       <c r="O3">
-        <v>0.6955737578712688</v>
+        <v>0.2128705842010105</v>
       </c>
       <c r="P3">
-        <v>0.6955737578712688</v>
+        <v>0.2632693536604661</v>
       </c>
       <c r="Q3">
-        <v>91.67774036387983</v>
+        <v>42.90461408190833</v>
       </c>
       <c r="R3">
-        <v>91.67774036387983</v>
+        <v>257.42768449145</v>
       </c>
       <c r="S3">
-        <v>0.07834110613217843</v>
+        <v>0.0232548886007869</v>
       </c>
       <c r="T3">
-        <v>0.07834110613217843</v>
+        <v>0.02144726800813706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>76.4364136702626</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H4">
-        <v>76.4364136702626</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I4">
-        <v>0.1895314003179442</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J4">
-        <v>0.1895314003179442</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.8833588351395359</v>
+        <v>0.3969463333333333</v>
       </c>
       <c r="N4">
-        <v>0.8833588351395359</v>
+        <v>1.190839</v>
       </c>
       <c r="O4">
-        <v>0.3044262421287312</v>
+        <v>0.08951238320568766</v>
       </c>
       <c r="P4">
-        <v>0.3044262421287312</v>
+        <v>0.1107051373942604</v>
       </c>
       <c r="Q4">
-        <v>67.52078134200687</v>
+        <v>18.04145120100483</v>
       </c>
       <c r="R4">
-        <v>67.52078134200687</v>
+        <v>108.248707206029</v>
       </c>
       <c r="S4">
-        <v>0.05769833196418796</v>
+        <v>0.009778713708389088</v>
       </c>
       <c r="T4">
-        <v>0.05769833196418796</v>
+        <v>0.009018606680040937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>76.4364136702626</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H5">
-        <v>76.4364136702626</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I5">
-        <v>0.1895314003179442</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J5">
-        <v>0.1895314003179442</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.01835827361745</v>
+        <v>0.5468423333333333</v>
       </c>
       <c r="N5">
-        <v>2.01835827361745</v>
+        <v>1.640527</v>
       </c>
       <c r="O5">
-        <v>0.6955737578712688</v>
+        <v>0.123314303178916</v>
       </c>
       <c r="P5">
-        <v>0.6955737578712688</v>
+        <v>0.1525099252997205</v>
       </c>
       <c r="Q5">
-        <v>154.2760679370205</v>
+        <v>24.85431516303283</v>
       </c>
       <c r="R5">
-        <v>154.2760679370205</v>
+        <v>149.125890978197</v>
       </c>
       <c r="S5">
-        <v>0.1318330683537562</v>
+        <v>0.0134713793081033</v>
       </c>
       <c r="T5">
-        <v>0.1318330683537562</v>
+        <v>0.01242423850830172</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>81.9095757857405</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H6">
-        <v>81.9095757857405</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I6">
-        <v>0.2031026293971707</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J6">
-        <v>0.2031026293971707</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8833588351395359</v>
+        <v>2.1791815</v>
       </c>
       <c r="N6">
-        <v>0.8833588351395359</v>
+        <v>4.358363</v>
       </c>
       <c r="O6">
-        <v>0.3044262421287312</v>
+        <v>0.4914108359805446</v>
       </c>
       <c r="P6">
-        <v>0.3044262421287312</v>
+        <v>0.4051707869233885</v>
       </c>
       <c r="Q6">
-        <v>72.35554745286527</v>
+        <v>99.04511866939824</v>
       </c>
       <c r="R6">
-        <v>72.35554745286527</v>
+        <v>396.1804746775929</v>
       </c>
       <c r="S6">
-        <v>0.06182977023384503</v>
+        <v>0.05368381117964199</v>
       </c>
       <c r="T6">
-        <v>0.06182977023384503</v>
+        <v>0.03300728449928433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>81.9095757857405</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H7">
-        <v>81.9095757857405</v>
+        <v>240.777241</v>
       </c>
       <c r="I7">
-        <v>0.2031026293971707</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J7">
-        <v>0.2031026293971707</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>2.01835827361745</v>
+        <v>0.3675875</v>
       </c>
       <c r="N7">
-        <v>2.01835827361745</v>
+        <v>0.735175</v>
       </c>
       <c r="O7">
-        <v>0.6955737578712688</v>
+        <v>0.0828918934338413</v>
       </c>
       <c r="P7">
-        <v>0.6955737578712688</v>
+        <v>0.0683447967221643</v>
       </c>
       <c r="Q7">
-        <v>165.3228699756449</v>
+        <v>29.50223469202917</v>
       </c>
       <c r="R7">
-        <v>165.3228699756449</v>
+        <v>177.013408152175</v>
       </c>
       <c r="S7">
-        <v>0.1412728591633256</v>
+        <v>0.01599061536662804</v>
       </c>
       <c r="T7">
-        <v>0.1412728591633256</v>
+        <v>0.01474765238701257</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,181 +909,181 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.22606129599269</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H8">
-        <v>76.22606129599269</v>
+        <v>240.777241</v>
       </c>
       <c r="I8">
-        <v>0.1890098114816657</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J8">
-        <v>0.1890098114816657</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8833588351395359</v>
+        <v>0.9439833333333333</v>
       </c>
       <c r="N8">
-        <v>0.8833588351395359</v>
+        <v>2.83195</v>
       </c>
       <c r="O8">
-        <v>0.3044262421287312</v>
+        <v>0.2128705842010105</v>
       </c>
       <c r="P8">
-        <v>0.3044262421287312</v>
+        <v>0.2632693536604661</v>
       </c>
       <c r="Q8">
-        <v>67.33496471370297</v>
+        <v>75.76323418332777</v>
       </c>
       <c r="R8">
-        <v>67.33496471370297</v>
+        <v>681.86910764995</v>
       </c>
       <c r="S8">
-        <v>0.05753954663482338</v>
+        <v>0.04106471083984291</v>
       </c>
       <c r="T8">
-        <v>0.05753954663482338</v>
+        <v>0.05680907835195734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.22606129599269</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H9">
-        <v>76.22606129599269</v>
+        <v>240.777241</v>
       </c>
       <c r="I9">
-        <v>0.1890098114816657</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J9">
-        <v>0.1890098114816657</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.01835827361745</v>
+        <v>0.3969463333333333</v>
       </c>
       <c r="N9">
-        <v>2.01835827361745</v>
+        <v>1.190839</v>
       </c>
       <c r="O9">
-        <v>0.6955737578712688</v>
+        <v>0.08951238320568766</v>
       </c>
       <c r="P9">
-        <v>0.6955737578712688</v>
+        <v>0.1107051373942604</v>
       </c>
       <c r="Q9">
-        <v>153.8515014820377</v>
+        <v>31.85854765502211</v>
       </c>
       <c r="R9">
-        <v>153.8515014820377</v>
+        <v>286.726928895199</v>
       </c>
       <c r="S9">
-        <v>0.1314702648468423</v>
+        <v>0.01726776927269468</v>
       </c>
       <c r="T9">
-        <v>0.1314702648468423</v>
+        <v>0.02388829818872739</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.5149169827131</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H10">
-        <v>39.5149169827131</v>
+        <v>240.777241</v>
       </c>
       <c r="I10">
-        <v>0.09798101702532691</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J10">
-        <v>0.09798101702532691</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.8833588351395359</v>
+        <v>0.5468423333333333</v>
       </c>
       <c r="N10">
-        <v>0.8833588351395359</v>
+        <v>1.640527</v>
       </c>
       <c r="O10">
-        <v>0.3044262421287312</v>
+        <v>0.123314303178916</v>
       </c>
       <c r="P10">
-        <v>0.3044262421287312</v>
+        <v>0.1525099252997205</v>
       </c>
       <c r="Q10">
-        <v>34.90585103648491</v>
+        <v>43.88906276066744</v>
       </c>
       <c r="R10">
-        <v>34.90585103648491</v>
+        <v>395.001564846007</v>
       </c>
       <c r="S10">
-        <v>0.0298279928129715</v>
+        <v>0.02378847327105174</v>
       </c>
       <c r="T10">
-        <v>0.0298279928129715</v>
+        <v>0.03290906508995622</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.5149169827131</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H11">
-        <v>39.5149169827131</v>
+        <v>240.777241</v>
       </c>
       <c r="I11">
-        <v>0.09798101702532691</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J11">
-        <v>0.09798101702532691</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.01835827361745</v>
+        <v>2.1791815</v>
       </c>
       <c r="N11">
-        <v>2.01835827361745</v>
+        <v>4.358363</v>
       </c>
       <c r="O11">
-        <v>0.6955737578712688</v>
+        <v>0.4914108359805446</v>
       </c>
       <c r="P11">
-        <v>0.6955737578712688</v>
+        <v>0.4051707869233885</v>
       </c>
       <c r="Q11">
-        <v>79.75525962336567</v>
+        <v>174.8991030694138</v>
       </c>
       <c r="R11">
-        <v>79.75525962336567</v>
+        <v>1049.394618416483</v>
       </c>
       <c r="S11">
-        <v>0.06815302421235542</v>
+        <v>0.09479770988015516</v>
       </c>
       <c r="T11">
-        <v>0.06815302421235542</v>
+        <v>0.08742901010020371</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,1233 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.78265396387459</v>
+        <v>82.109515</v>
       </c>
       <c r="H12">
-        <v>83.78265396387459</v>
+        <v>246.328545</v>
       </c>
       <c r="I12">
-        <v>0.2077471059360386</v>
+        <v>0.1973569500367323</v>
       </c>
       <c r="J12">
-        <v>0.2077471059360386</v>
+        <v>0.2207581491181523</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.8833588351395359</v>
+        <v>0.3675875</v>
       </c>
       <c r="N12">
-        <v>0.8833588351395359</v>
+        <v>0.735175</v>
       </c>
       <c r="O12">
-        <v>0.3044262421287312</v>
+        <v>0.0828918934338413</v>
       </c>
       <c r="P12">
-        <v>0.3044262421287312</v>
+        <v>0.0683447967221643</v>
       </c>
       <c r="Q12">
-        <v>74.01014761042708</v>
+        <v>30.1824313450625</v>
       </c>
       <c r="R12">
-        <v>74.01014761042708</v>
+        <v>181.094588070375</v>
       </c>
       <c r="S12">
-        <v>0.06324367077322765</v>
+        <v>0.01635929127087276</v>
       </c>
       <c r="T12">
-        <v>0.06324367077322765</v>
+        <v>0.01508767082624135</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>82.109515</v>
+      </c>
+      <c r="H13">
+        <v>246.328545</v>
+      </c>
+      <c r="I13">
+        <v>0.1973569500367323</v>
+      </c>
+      <c r="J13">
+        <v>0.2207581491181523</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9439833333333333</v>
+      </c>
+      <c r="N13">
+        <v>2.83195</v>
+      </c>
+      <c r="O13">
+        <v>0.2128705842010105</v>
+      </c>
+      <c r="P13">
+        <v>0.2632693536604661</v>
+      </c>
+      <c r="Q13">
+        <v>77.51001366808333</v>
+      </c>
+      <c r="R13">
+        <v>697.59012301275</v>
+      </c>
+      <c r="S13">
+        <v>0.04201148925044885</v>
+      </c>
+      <c r="T13">
+        <v>0.05811885523361675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>82.109515</v>
+      </c>
+      <c r="H14">
+        <v>246.328545</v>
+      </c>
+      <c r="I14">
+        <v>0.1973569500367323</v>
+      </c>
+      <c r="J14">
+        <v>0.2207581491181523</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3969463333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.190839</v>
+      </c>
+      <c r="O14">
+        <v>0.08951238320568766</v>
+      </c>
+      <c r="P14">
+        <v>0.1107051373942604</v>
+      </c>
+      <c r="Q14">
+        <v>32.59307091102833</v>
+      </c>
+      <c r="R14">
+        <v>293.337638199255</v>
+      </c>
+      <c r="S14">
+        <v>0.01766589093999374</v>
+      </c>
+      <c r="T14">
+        <v>0.02443906122902768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>82.109515</v>
+      </c>
+      <c r="H15">
+        <v>246.328545</v>
+      </c>
+      <c r="I15">
+        <v>0.1973569500367323</v>
+      </c>
+      <c r="J15">
+        <v>0.2207581491181523</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.5468423333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.640527</v>
+      </c>
+      <c r="O15">
+        <v>0.123314303178916</v>
+      </c>
+      <c r="P15">
+        <v>0.1525099252997205</v>
+      </c>
+      <c r="Q15">
+        <v>44.90095877146833</v>
+      </c>
+      <c r="R15">
+        <v>404.108628943215</v>
+      </c>
+      <c r="S15">
+        <v>0.02433693477129579</v>
+      </c>
+      <c r="T15">
+        <v>0.03366780883131397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>82.109515</v>
+      </c>
+      <c r="H16">
+        <v>246.328545</v>
+      </c>
+      <c r="I16">
+        <v>0.1973569500367323</v>
+      </c>
+      <c r="J16">
+        <v>0.2207581491181523</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.1791815</v>
+      </c>
+      <c r="N16">
+        <v>4.358363</v>
+      </c>
+      <c r="O16">
+        <v>0.4914108359805446</v>
+      </c>
+      <c r="P16">
+        <v>0.4051707869233885</v>
+      </c>
+      <c r="Q16">
+        <v>178.9315360619725</v>
+      </c>
+      <c r="R16">
+        <v>1073.589216371835</v>
+      </c>
+      <c r="S16">
+        <v>0.0969833438041212</v>
+      </c>
+      <c r="T16">
+        <v>0.08944475299795253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>77.886416</v>
+      </c>
+      <c r="H17">
+        <v>233.659248</v>
+      </c>
+      <c r="I17">
+        <v>0.1872063854116316</v>
+      </c>
+      <c r="J17">
+        <v>0.2094040019309144</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.3675875</v>
+      </c>
+      <c r="N17">
+        <v>0.735175</v>
+      </c>
+      <c r="O17">
+        <v>0.0828918934338413</v>
+      </c>
+      <c r="P17">
+        <v>0.0683447967221643</v>
+      </c>
+      <c r="Q17">
+        <v>28.6300729414</v>
+      </c>
+      <c r="R17">
+        <v>171.7804376484</v>
+      </c>
+      <c r="S17">
+        <v>0.01551789174967559</v>
+      </c>
+      <c r="T17">
+        <v>0.01431167394477604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>77.886416</v>
+      </c>
+      <c r="H18">
+        <v>233.659248</v>
+      </c>
+      <c r="I18">
+        <v>0.1872063854116316</v>
+      </c>
+      <c r="J18">
+        <v>0.2094040019309144</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9439833333333333</v>
+      </c>
+      <c r="N18">
+        <v>2.83195</v>
+      </c>
+      <c r="O18">
+        <v>0.2128705842010105</v>
+      </c>
+      <c r="P18">
+        <v>0.2632693536604661</v>
+      </c>
+      <c r="Q18">
+        <v>73.52347859706666</v>
+      </c>
+      <c r="R18">
+        <v>661.7113073736</v>
+      </c>
+      <c r="S18">
+        <v>0.03985073262873356</v>
+      </c>
+      <c r="T18">
+        <v>0.05512965624226682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>77.886416</v>
+      </c>
+      <c r="H19">
+        <v>233.659248</v>
+      </c>
+      <c r="I19">
+        <v>0.1872063854116316</v>
+      </c>
+      <c r="J19">
+        <v>0.2094040019309144</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.3969463333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.190839</v>
+      </c>
+      <c r="O19">
+        <v>0.08951238320568766</v>
+      </c>
+      <c r="P19">
+        <v>0.1107051373942604</v>
+      </c>
+      <c r="Q19">
+        <v>30.91672724767467</v>
+      </c>
+      <c r="R19">
+        <v>278.250545229072</v>
+      </c>
+      <c r="S19">
+        <v>0.01675728970951763</v>
+      </c>
+      <c r="T19">
+        <v>0.02318209880466985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>77.886416</v>
+      </c>
+      <c r="H20">
+        <v>233.659248</v>
+      </c>
+      <c r="I20">
+        <v>0.1872063854116316</v>
+      </c>
+      <c r="J20">
+        <v>0.2094040019309144</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.5468423333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.640527</v>
+      </c>
+      <c r="O20">
+        <v>0.123314303178916</v>
+      </c>
+      <c r="P20">
+        <v>0.1525099252997205</v>
+      </c>
+      <c r="Q20">
+        <v>42.59158946041067</v>
+      </c>
+      <c r="R20">
+        <v>383.324305143696</v>
+      </c>
+      <c r="S20">
+        <v>0.02308522496767894</v>
+      </c>
+      <c r="T20">
+        <v>0.03193618869194628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>83.78265396387459</v>
-      </c>
-      <c r="H13">
-        <v>83.78265396387459</v>
-      </c>
-      <c r="I13">
-        <v>0.2077471059360386</v>
-      </c>
-      <c r="J13">
-        <v>0.2077471059360386</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.01835827361745</v>
-      </c>
-      <c r="N13">
-        <v>2.01835827361745</v>
-      </c>
-      <c r="O13">
-        <v>0.6955737578712688</v>
-      </c>
-      <c r="P13">
-        <v>0.6955737578712688</v>
-      </c>
-      <c r="Q13">
-        <v>169.1034128136141</v>
-      </c>
-      <c r="R13">
-        <v>169.1034128136141</v>
-      </c>
-      <c r="S13">
-        <v>0.1445034351628109</v>
-      </c>
-      <c r="T13">
-        <v>0.1445034351628109</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>77.886416</v>
+      </c>
+      <c r="H21">
+        <v>233.659248</v>
+      </c>
+      <c r="I21">
+        <v>0.1872063854116316</v>
+      </c>
+      <c r="J21">
+        <v>0.2094040019309144</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.1791815</v>
+      </c>
+      <c r="N21">
+        <v>4.358363</v>
+      </c>
+      <c r="O21">
+        <v>0.4914108359805446</v>
+      </c>
+      <c r="P21">
+        <v>0.4051707869233885</v>
+      </c>
+      <c r="Q21">
+        <v>169.728636848504</v>
+      </c>
+      <c r="R21">
+        <v>1018.371821091024</v>
+      </c>
+      <c r="S21">
+        <v>0.09199524635602592</v>
+      </c>
+      <c r="T21">
+        <v>0.08484438424725534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>43.48344933333334</v>
+      </c>
+      <c r="H22">
+        <v>130.450348</v>
+      </c>
+      <c r="I22">
+        <v>0.1045160349260795</v>
+      </c>
+      <c r="J22">
+        <v>0.11690881126383</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.3675875</v>
+      </c>
+      <c r="N22">
+        <v>0.735175</v>
+      </c>
+      <c r="O22">
+        <v>0.0828918934338413</v>
+      </c>
+      <c r="P22">
+        <v>0.0683447967221643</v>
+      </c>
+      <c r="Q22">
+        <v>15.98397243181667</v>
+      </c>
+      <c r="R22">
+        <v>95.90383459090002</v>
+      </c>
+      <c r="S22">
+        <v>0.008663532029220218</v>
+      </c>
+      <c r="T22">
+        <v>0.007990108940856335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>43.48344933333334</v>
+      </c>
+      <c r="H23">
+        <v>130.450348</v>
+      </c>
+      <c r="I23">
+        <v>0.1045160349260795</v>
+      </c>
+      <c r="J23">
+        <v>0.11690881126383</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9439833333333333</v>
+      </c>
+      <c r="N23">
+        <v>2.83195</v>
+      </c>
+      <c r="O23">
+        <v>0.2128705842010105</v>
+      </c>
+      <c r="P23">
+        <v>0.2632693536604661</v>
+      </c>
+      <c r="Q23">
+        <v>41.04765144651112</v>
+      </c>
+      <c r="R23">
+        <v>369.4288630186001</v>
+      </c>
+      <c r="S23">
+        <v>0.02224838941308777</v>
+      </c>
+      <c r="T23">
+        <v>0.03077850717864195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>43.48344933333334</v>
+      </c>
+      <c r="H24">
+        <v>130.450348</v>
+      </c>
+      <c r="I24">
+        <v>0.1045160349260795</v>
+      </c>
+      <c r="J24">
+        <v>0.11690881126383</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.3969463333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.190839</v>
+      </c>
+      <c r="O24">
+        <v>0.08951238320568766</v>
+      </c>
+      <c r="P24">
+        <v>0.1107051373942604</v>
+      </c>
+      <c r="Q24">
+        <v>17.26059577355245</v>
+      </c>
+      <c r="R24">
+        <v>155.345361961972</v>
+      </c>
+      <c r="S24">
+        <v>0.009355479369442265</v>
+      </c>
+      <c r="T24">
+        <v>0.01294240601356197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>43.48344933333334</v>
+      </c>
+      <c r="H25">
+        <v>130.450348</v>
+      </c>
+      <c r="I25">
+        <v>0.1045160349260795</v>
+      </c>
+      <c r="J25">
+        <v>0.11690881126383</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.5468423333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.640527</v>
+      </c>
+      <c r="O25">
+        <v>0.123314303178916</v>
+      </c>
+      <c r="P25">
+        <v>0.1525099252997205</v>
+      </c>
+      <c r="Q25">
+        <v>23.77859089482178</v>
+      </c>
+      <c r="R25">
+        <v>214.007318053396</v>
+      </c>
+      <c r="S25">
+        <v>0.01288832201793274</v>
+      </c>
+      <c r="T25">
+        <v>0.01782975407272584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>43.48344933333334</v>
+      </c>
+      <c r="H26">
+        <v>130.450348</v>
+      </c>
+      <c r="I26">
+        <v>0.1045160349260795</v>
+      </c>
+      <c r="J26">
+        <v>0.11690881126383</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.1791815</v>
+      </c>
+      <c r="N26">
+        <v>4.358363</v>
+      </c>
+      <c r="O26">
+        <v>0.4914108359805446</v>
+      </c>
+      <c r="P26">
+        <v>0.4051707869233885</v>
+      </c>
+      <c r="Q26">
+        <v>94.75832834338735</v>
+      </c>
+      <c r="R26">
+        <v>568.5499700603241</v>
+      </c>
+      <c r="S26">
+        <v>0.05136031209639653</v>
+      </c>
+      <c r="T26">
+        <v>0.04736803505804392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>86.856657</v>
+      </c>
+      <c r="H27">
+        <v>173.713314</v>
+      </c>
+      <c r="I27">
+        <v>0.2087670949695245</v>
+      </c>
+      <c r="J27">
+        <v>0.1556808191913788</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>0.3675875</v>
+      </c>
+      <c r="N27">
+        <v>0.735175</v>
+      </c>
+      <c r="O27">
+        <v>0.0828918934338413</v>
+      </c>
+      <c r="P27">
+        <v>0.0683447967221643</v>
+      </c>
+      <c r="Q27">
+        <v>31.9274214049875</v>
+      </c>
+      <c r="R27">
+        <v>127.70968561995</v>
+      </c>
+      <c r="S27">
+        <v>0.01730509978870645</v>
+      </c>
+      <c r="T27">
+        <v>0.0106399739411748</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>86.856657</v>
+      </c>
+      <c r="H28">
+        <v>173.713314</v>
+      </c>
+      <c r="I28">
+        <v>0.2087670949695245</v>
+      </c>
+      <c r="J28">
+        <v>0.1556808191913788</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.9439833333333333</v>
+      </c>
+      <c r="N28">
+        <v>2.83195</v>
+      </c>
+      <c r="O28">
+        <v>0.2128705842010105</v>
+      </c>
+      <c r="P28">
+        <v>0.2632693536604661</v>
+      </c>
+      <c r="Q28">
+        <v>81.99123659704999</v>
+      </c>
+      <c r="R28">
+        <v>491.9474195823</v>
+      </c>
+      <c r="S28">
+        <v>0.04444037346811053</v>
+      </c>
+      <c r="T28">
+        <v>0.04098598864584618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>86.856657</v>
+      </c>
+      <c r="H29">
+        <v>173.713314</v>
+      </c>
+      <c r="I29">
+        <v>0.2087670949695245</v>
+      </c>
+      <c r="J29">
+        <v>0.1556808191913788</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.3969463333333333</v>
+      </c>
+      <c r="N29">
+        <v>1.190839</v>
+      </c>
+      <c r="O29">
+        <v>0.08951238320568766</v>
+      </c>
+      <c r="P29">
+        <v>0.1107051373942604</v>
+      </c>
+      <c r="Q29">
+        <v>34.477431521741</v>
+      </c>
+      <c r="R29">
+        <v>206.864589130446</v>
+      </c>
+      <c r="S29">
+        <v>0.01868724020565026</v>
+      </c>
+      <c r="T29">
+        <v>0.01723466647823261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>86.856657</v>
+      </c>
+      <c r="H30">
+        <v>173.713314</v>
+      </c>
+      <c r="I30">
+        <v>0.2087670949695245</v>
+      </c>
+      <c r="J30">
+        <v>0.1556808191913788</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.5468423333333333</v>
+      </c>
+      <c r="N30">
+        <v>1.640527</v>
+      </c>
+      <c r="O30">
+        <v>0.123314303178916</v>
+      </c>
+      <c r="P30">
+        <v>0.1525099252997205</v>
+      </c>
+      <c r="Q30">
+        <v>47.49689697941299</v>
+      </c>
+      <c r="R30">
+        <v>284.981381876478</v>
+      </c>
+      <c r="S30">
+        <v>0.02574396884285349</v>
+      </c>
+      <c r="T30">
+        <v>0.02374287010547647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>86.856657</v>
+      </c>
+      <c r="H31">
+        <v>173.713314</v>
+      </c>
+      <c r="I31">
+        <v>0.2087670949695245</v>
+      </c>
+      <c r="J31">
+        <v>0.1556808191913788</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.1791815</v>
+      </c>
+      <c r="N31">
+        <v>4.358363</v>
+      </c>
+      <c r="O31">
+        <v>0.4914108359805446</v>
+      </c>
+      <c r="P31">
+        <v>0.4051707869233885</v>
+      </c>
+      <c r="Q31">
+        <v>189.2764200862455</v>
+      </c>
+      <c r="R31">
+        <v>757.1056803449819</v>
+      </c>
+      <c r="S31">
+        <v>0.1025904126642038</v>
+      </c>
+      <c r="T31">
+        <v>0.06307732002064871</v>
       </c>
     </row>
   </sheetData>
